--- a/properties/visuals.xlsx
+++ b/properties/visuals.xlsx
@@ -192,12 +192,6 @@
     <t>Tranch Value USD</t>
   </si>
   <si>
-    <t>This figure demonstrates probably very little as I have no idea what any of this is. Nonetheless, observe that the tranch value decreases over time (maybe this means banks are less will to offer high value loans - if that is what these are, I don't know...), very cool.</t>
-  </si>
-  <si>
-    <t>This figure literally shows the exact same thing as the above figure, however this figure is in USD. I should also point out that conceptABS is very shit and that both EUR Equiv. (above) and USD Equiv. (this) are calculated from a Face Value column. Which is great, however what conceptABS can't deal with is super basic formatting differences, so when they have data formatted like [4.5m], rather than converting this into 4,500,000, they just ignore it and leave your EUR Equiv. and USD Equiv. columns blank, so the dataset isn't even complete. Deloitte needs to stop picking shit companies that are stuck in the 90s.</t>
-  </si>
-  <si>
     <t>Top</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>Top 7 Issuers by EUR Value</t>
+  </si>
+  <si>
+    <t>This figure literally shows the exact same thing as the above figure, however this figure is in USD. I should also point out  that both EUR Equiv. (above) and USD Equiv. (this) are calculated from a Face Value column. But with formatting differences (eg [4.5m]), rather than converting this into 4,500,000, they it is not converted and leaves the EUR Equiv. and USD Equiv. columns blank, so the dataset isn't complete.</t>
+  </si>
+  <si>
+    <t>Enter description here.</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -423,7 +423,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
-        <color theme="1"/>
+        <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
@@ -462,10 +462,10 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E1:E37" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Normal 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="E1:E37" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="Normal 2">
   <autoFilter ref="E1:E37"/>
   <tableColumns count="1">
-    <tableColumn id="1" name="Headers" dataDxfId="2"/>
+    <tableColumn id="1" name="Headers" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -747,7 +747,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I1" s="11" t="s">
         <v>10</v>
@@ -793,7 +793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -818,10 +818,10 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -846,7 +846,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -854,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>31</v>
@@ -869,7 +869,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" s="5">
         <v>7</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>15</v>
